--- a/southafrica/TEMP/MTN_Backup_Tracker_TEMP.xlsx
+++ b/southafrica/TEMP/MTN_Backup_Tracker_TEMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eaakgar\AppData\Local\Temp\scp12358\home\ubuntu\perl-to-python\southafrica\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624CD878-EEEA-458C-A30D-1E1B4113D404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B30AFD2-DBD5-4B64-8BA8-E5B7AEB6D000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDP(Daily)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="259">
   <si>
     <t xml:space="preserve">Node Name  </t>
   </si>
@@ -736,9 +736,6 @@
   </si>
   <si>
     <t>Backup status IO backup(Quaterly)</t>
-  </si>
-  <si>
-    <t>Backup status FS backupp(Quaterly)</t>
   </si>
   <si>
     <t>10.104.11.1</t>
@@ -1577,13 +1574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1592,6 +1582,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2229,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>2</v>
@@ -2934,13 +2931,13 @@
       <c r="B2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="56" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2951,9 +2948,9 @@
       <c r="B3" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -2962,9 +2959,9 @@
       <c r="B4" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -2973,9 +2970,9 @@
       <c r="B5" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2992,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3025,33 +3022,27 @@
       <c r="F1" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>7</v>
-      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -3059,21 +3050,19 @@
         <v>28</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -3081,37 +3070,33 @@
         <v>20</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
       <c r="E5" s="46"/>
       <c r="F5" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>236</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3119,21 +3104,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>242</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -3144,16 +3127,14 @@
         <v>25</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="46"/>
       <c r="F7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>236</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -3161,21 +3142,19 @@
         <v>32</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -3183,21 +3162,19 @@
         <v>34</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>242</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -3205,21 +3182,19 @@
         <v>22</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>242</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -3227,21 +3202,19 @@
         <v>16</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>242</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -3249,21 +3222,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -3271,21 +3242,19 @@
         <v>14</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -3293,21 +3262,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -3315,21 +3282,19 @@
         <v>36</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -3337,21 +3302,19 @@
         <v>30</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -3359,21 +3322,19 @@
         <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="5"/>
     </row>
     <row r="1048576" spans="4:4" x14ac:dyDescent="0.35">
@@ -3406,10 +3367,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
@@ -4274,7 +4235,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>6</v>
@@ -4653,7 +4614,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>41</v>
@@ -5133,7 +5094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD67487A-FE59-4DE1-AACC-F7E7289827F7}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -5147,20 +5108,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="56" t="s">
+      <c r="E1" s="53" t="s">
         <v>258</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5558,7 +5519,7 @@
       <c r="E2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5578,7 +5539,7 @@
       <c r="E3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="52"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -5596,7 +5557,7 @@
       <c r="E4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -5614,7 +5575,7 @@
       <c r="E5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -5632,7 +5593,7 @@
       <c r="E6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -5650,7 +5611,7 @@
       <c r="E7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -5668,7 +5629,7 @@
       <c r="E8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -5686,7 +5647,7 @@
       <c r="E9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -5704,7 +5665,7 @@
       <c r="E10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -5722,7 +5683,7 @@
       <c r="E11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -5740,7 +5701,7 @@
       <c r="E12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -5758,7 +5719,7 @@
       <c r="E13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -5776,7 +5737,7 @@
       <c r="E14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -5794,7 +5755,7 @@
       <c r="E15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -5812,7 +5773,7 @@
       <c r="E16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -5830,7 +5791,7 @@
       <c r="E17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
@@ -5848,7 +5809,7 @@
       <c r="E18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
@@ -5866,7 +5827,7 @@
       <c r="E19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
@@ -5884,7 +5845,7 @@
       <c r="E20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -5902,7 +5863,7 @@
       <c r="E21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -5920,7 +5881,7 @@
       <c r="E22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="52"/>
+      <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
@@ -5938,7 +5899,7 @@
       <c r="E23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="52"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
@@ -5956,7 +5917,7 @@
       <c r="E24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="52"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
@@ -5974,7 +5935,7 @@
       <c r="E25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="52"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
@@ -5992,7 +5953,7 @@
       <c r="E26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
@@ -6010,7 +5971,7 @@
       <c r="E27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="52"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
@@ -6028,7 +5989,7 @@
       <c r="E28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="52"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
@@ -6046,7 +6007,7 @@
       <c r="E29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="52"/>
+      <c r="F29" s="55"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
@@ -6064,7 +6025,7 @@
       <c r="E30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="52"/>
+      <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
@@ -6082,7 +6043,7 @@
       <c r="E31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="55"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
@@ -6100,7 +6061,7 @@
       <c r="E32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="52"/>
+      <c r="F32" s="55"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
@@ -6118,7 +6079,7 @@
       <c r="E33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="52"/>
+      <c r="F33" s="55"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
@@ -6136,7 +6097,7 @@
       <c r="E34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="52"/>
+      <c r="F34" s="55"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
@@ -6154,7 +6115,7 @@
       <c r="E35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="52"/>
+      <c r="F35" s="55"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
@@ -6172,7 +6133,7 @@
       <c r="E36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="52"/>
+      <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
@@ -6190,7 +6151,7 @@
       <c r="E37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="52"/>
+      <c r="F37" s="55"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
@@ -6208,7 +6169,7 @@
       <c r="E38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="52"/>
+      <c r="F38" s="55"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
@@ -6226,7 +6187,7 @@
       <c r="E39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="52"/>
+      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
@@ -6244,7 +6205,7 @@
       <c r="E40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="55"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
@@ -6262,7 +6223,7 @@
       <c r="E41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="52"/>
+      <c r="F41" s="55"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
@@ -6280,7 +6241,7 @@
       <c r="E42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="52"/>
+      <c r="F42" s="55"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
@@ -6298,7 +6259,7 @@
       <c r="E43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="52"/>
+      <c r="F43" s="55"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
@@ -6316,7 +6277,7 @@
       <c r="E44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="52"/>
+      <c r="F44" s="55"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
@@ -6334,7 +6295,7 @@
       <c r="E45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="52"/>
+      <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
@@ -6352,7 +6313,7 @@
       <c r="E46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="52"/>
+      <c r="F46" s="55"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
@@ -6370,7 +6331,7 @@
       <c r="E47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="52"/>
+      <c r="F47" s="55"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
@@ -6388,7 +6349,7 @@
       <c r="E48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="52"/>
+      <c r="F48" s="55"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
@@ -6406,7 +6367,7 @@
       <c r="E49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="52"/>
+      <c r="F49" s="55"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
@@ -6424,7 +6385,7 @@
       <c r="E50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="52"/>
+      <c r="F50" s="55"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
@@ -6442,7 +6403,7 @@
       <c r="E51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="52"/>
+      <c r="F51" s="55"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
@@ -6460,7 +6421,7 @@
       <c r="E52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="52"/>
+      <c r="F52" s="55"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
@@ -6478,7 +6439,7 @@
       <c r="E53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="52"/>
+      <c r="F53" s="55"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
